--- a/service-system/target/classes/static/车辙-2车道.xlsx
+++ b/service-system/target/classes/static/车辙-2车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C872ED-E13A-4004-99FA-2132EE986567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0D051D-2A2B-4AA2-9E40-DD352D55D10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="799" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="799" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="右幅-混凝土路面" sheetId="12" state="hidden" r:id="rId1"/>
@@ -400,10 +400,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1499,7 +1499,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:L5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1516,7 +1516,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="26"/>
@@ -1604,22 +1604,22 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="19"/>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="17"/>
@@ -2139,7 +2139,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2156,7 +2156,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="26"/>
@@ -2778,8 +2778,8 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2796,7 +2796,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="26"/>
@@ -2884,22 +2884,22 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="19"/>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="17"/>
@@ -7318,8 +7318,8 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G26" activeCellId="1" sqref="I14 G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7959,7 +7959,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8064,22 +8064,22 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="19"/>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="17"/>
@@ -8599,7 +8599,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8616,7 +8616,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="26"/>

--- a/service-system/target/classes/static/车辙-2车道.xlsx
+++ b/service-system/target/classes/static/车辙-2车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0D051D-2A2B-4AA2-9E40-DD352D55D10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC6625D-6B28-4584-BD40-A2EF010EF064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="799" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="799" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="右幅-混凝土路面" sheetId="12" state="hidden" r:id="rId1"/>
@@ -26,10 +26,6 @@
     <sheet name="右幅-路面" sheetId="2" r:id="rId11"/>
     <sheet name="左幅-路面" sheetId="1" r:id="rId12"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="10">'右幅-路面'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="11">'左幅-路面'!$1:$6</definedName>
-  </definedNames>
   <calcPr calcId="144525" fullPrecision="0"/>
 </workbook>
 </file>
@@ -364,6 +360,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -384,21 +395,6 @@
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,86 +718,86 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="14" max="16" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.59765625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -809,7 +805,7 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -817,7 +813,7 @@
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="16" t="s">
@@ -825,7 +821,7 @@
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="18"/>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="16" t="s">
@@ -835,26 +831,26 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
       <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
+      <c r="M5" s="24"/>
       <c r="N5" s="16" t="s">
         <v>10</v>
       </c>
@@ -862,8 +858,8 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -873,7 +869,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -883,7 +879,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -893,7 +889,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="19"/>
+      <c r="M6" s="24"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -905,7 +901,7 @@
       </c>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -924,7 +920,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -943,7 +939,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -962,7 +958,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -981,7 +977,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1000,7 +996,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1019,7 +1015,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1038,7 +1034,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1057,7 +1053,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1076,7 +1072,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1095,7 +1091,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="12"/>
     </row>
-    <row r="17" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1114,7 +1110,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1133,7 +1129,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1152,7 +1148,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1171,7 +1167,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1190,7 +1186,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="12"/>
     </row>
-    <row r="22" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1209,7 +1205,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="12"/>
     </row>
-    <row r="23" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1228,7 +1224,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="12"/>
     </row>
-    <row r="24" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1247,7 +1243,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="12"/>
     </row>
-    <row r="25" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1266,7 +1262,7 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1291,7 +1287,7 @@
       </c>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1304,15 +1300,15 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="22"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="27"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1335,7 +1331,7 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="12"/>
     </row>
-    <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1358,7 +1354,7 @@
       <c r="P29" s="18"/>
       <c r="Q29" s="12"/>
     </row>
-    <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1374,14 +1370,14 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="30"/>
       <c r="Q30" s="14"/>
     </row>
-    <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1404,7 +1400,7 @@
       <c r="P31" s="18"/>
       <c r="Q31" s="12"/>
     </row>
-    <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1427,7 +1423,7 @@
       <c r="P32" s="18"/>
       <c r="Q32" s="12"/>
     </row>
-    <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1452,18 +1448,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -1480,6 +1464,18 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -1502,98 +1498,98 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="9" width="8.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="11" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="13.1328125" customWidth="1"/>
+    <col min="2" max="3" width="8.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" customWidth="1"/>
+    <col min="5" max="6" width="8.59765625" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" customWidth="1"/>
+    <col min="8" max="9" width="8.59765625" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
+    <col min="11" max="12" width="8.59765625" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="17"/>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="17"/>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="16" t="s">
@@ -1602,52 +1598,52 @@
       <c r="L4" s="17"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
       <c r="B5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="19"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="17"/>
-      <c r="G5" s="19"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="17"/>
-      <c r="J5" s="19"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1656,7 +1652,7 @@
       </c>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1671,7 +1667,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1686,7 +1682,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1701,7 +1697,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1716,7 +1712,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1731,7 +1727,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1746,7 +1742,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1761,7 +1757,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1776,7 +1772,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1791,7 +1787,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1806,7 +1802,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1821,7 +1817,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1836,7 +1832,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1851,7 +1847,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1866,7 +1862,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1881,7 +1877,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1896,7 +1892,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1911,7 +1907,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1926,7 +1922,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1941,7 +1937,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1960,7 +1956,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1970,14 +1966,14 @@
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1996,7 +1992,7 @@
       <c r="L28" s="17"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2015,7 +2011,7 @@
       <c r="L29" s="17"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2028,13 +2024,13 @@
       <c r="J30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="24"/>
+      <c r="L30" s="29"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2053,7 +2049,7 @@
       <c r="L31" s="17"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2072,7 +2068,7 @@
       <c r="L32" s="17"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2093,6 +2089,25 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:L1"/>
@@ -2102,25 +2117,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -2142,98 +2138,98 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="9" width="8.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="11" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="13.1328125" customWidth="1"/>
+    <col min="2" max="3" width="8.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" customWidth="1"/>
+    <col min="5" max="6" width="8.59765625" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" customWidth="1"/>
+    <col min="8" max="9" width="8.59765625" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
+    <col min="11" max="12" width="8.59765625" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="17"/>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="17"/>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="16" t="s">
@@ -2242,52 +2238,52 @@
       <c r="L4" s="17"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
       <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="19"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="17"/>
-      <c r="G5" s="19"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="17"/>
-      <c r="J5" s="19"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2296,7 +2292,7 @@
       </c>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2311,7 +2307,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2326,7 +2322,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2341,7 +2337,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2356,7 +2352,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -2371,7 +2367,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2386,7 +2382,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -2401,7 +2397,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2416,7 +2412,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2431,7 +2427,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2446,7 +2442,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2461,7 +2457,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2476,7 +2472,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2491,7 +2487,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2506,7 +2502,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2521,7 +2517,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2536,7 +2532,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2551,7 +2547,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2566,7 +2562,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2581,7 +2577,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2600,7 +2596,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2610,14 +2606,14 @@
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2636,7 +2632,7 @@
       <c r="L28" s="17"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2655,7 +2651,7 @@
       <c r="L29" s="17"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2668,13 +2664,13 @@
       <c r="J30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="24"/>
+      <c r="L30" s="29"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2693,7 +2689,7 @@
       <c r="L31" s="17"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2712,7 +2708,7 @@
       <c r="L32" s="17"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2733,6 +2729,25 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:L1"/>
@@ -2742,28 +2757,9 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
@@ -2782,98 +2778,98 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="9" width="8.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="11" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="13.1328125" customWidth="1"/>
+    <col min="2" max="3" width="8.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" customWidth="1"/>
+    <col min="5" max="6" width="8.59765625" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" customWidth="1"/>
+    <col min="8" max="9" width="8.59765625" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
+    <col min="11" max="12" width="8.59765625" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="17"/>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="17"/>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="16" t="s">
@@ -2882,52 +2878,52 @@
       <c r="L4" s="17"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
       <c r="B5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="19"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="17"/>
-      <c r="G5" s="19"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="17"/>
-      <c r="J5" s="19"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2936,7 +2932,7 @@
       </c>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2951,7 +2947,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2966,7 +2962,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2981,7 +2977,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2996,7 +2992,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -3011,7 +3007,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3026,7 +3022,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -3041,7 +3037,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3056,7 +3052,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -3071,7 +3067,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3086,7 +3082,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3101,7 +3097,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3116,7 +3112,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -3131,7 +3127,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3146,7 +3142,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3161,7 +3157,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3176,7 +3172,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3191,7 +3187,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3206,7 +3202,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -3221,7 +3217,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -3240,7 +3236,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -3250,14 +3246,14 @@
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -3276,7 +3272,7 @@
       <c r="L28" s="17"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -3295,7 +3291,7 @@
       <c r="L29" s="17"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -3308,13 +3304,13 @@
       <c r="J30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="24"/>
+      <c r="L30" s="29"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -3333,7 +3329,7 @@
       <c r="L31" s="17"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -3352,7 +3348,7 @@
       <c r="L32" s="17"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -3373,6 +3369,25 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:L1"/>
@@ -3382,28 +3397,9 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
@@ -3422,86 +3418,86 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="14" max="16" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.59765625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -3509,7 +3505,7 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -3517,7 +3513,7 @@
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="16" t="s">
@@ -3525,7 +3521,7 @@
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="18"/>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="16" t="s">
@@ -3535,26 +3531,26 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
       <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
+      <c r="M5" s="24"/>
       <c r="N5" s="16" t="s">
         <v>24</v>
       </c>
@@ -3562,8 +3558,8 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3573,7 +3569,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3583,7 +3579,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3593,7 +3589,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="19"/>
+      <c r="M6" s="24"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3605,7 +3601,7 @@
       </c>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3624,7 +3620,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3643,7 +3639,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3662,7 +3658,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3681,7 +3677,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3700,7 +3696,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -3719,7 +3715,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3738,7 +3734,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3757,7 +3753,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3776,7 +3772,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3795,7 +3791,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="12"/>
     </row>
-    <row r="17" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3814,7 +3810,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3833,7 +3829,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3852,7 +3848,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3871,7 +3867,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -3890,7 +3886,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="12"/>
     </row>
-    <row r="22" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3909,7 +3905,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="12"/>
     </row>
-    <row r="23" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3928,7 +3924,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="12"/>
     </row>
-    <row r="24" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -3947,7 +3943,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="12"/>
     </row>
-    <row r="25" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3966,7 +3962,7 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3991,7 +3987,7 @@
       </c>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -4004,15 +4000,15 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="22"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="27"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -4035,7 +4031,7 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="12"/>
     </row>
-    <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -4058,7 +4054,7 @@
       <c r="P29" s="18"/>
       <c r="Q29" s="12"/>
     </row>
-    <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4074,14 +4070,14 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="30"/>
       <c r="Q30" s="14"/>
     </row>
-    <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -4104,7 +4100,7 @@
       <c r="P31" s="18"/>
       <c r="Q31" s="12"/>
     </row>
-    <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -4127,7 +4123,7 @@
       <c r="P32" s="18"/>
       <c r="Q32" s="12"/>
     </row>
-    <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -4152,18 +4148,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -4180,6 +4164,18 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -4202,86 +4198,86 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="14" max="16" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.59765625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -4289,7 +4285,7 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -4297,7 +4293,7 @@
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="16" t="s">
@@ -4305,7 +4301,7 @@
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="18"/>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="16" t="s">
@@ -4315,26 +4311,26 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
       <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
+      <c r="M5" s="24"/>
       <c r="N5" s="16" t="s">
         <v>24</v>
       </c>
@@ -4342,8 +4338,8 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4353,7 +4349,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4363,7 +4359,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4373,7 +4369,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="19"/>
+      <c r="M6" s="24"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4385,7 +4381,7 @@
       </c>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4404,7 +4400,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4423,7 +4419,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4442,7 +4438,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -4461,7 +4457,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -4480,7 +4476,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -4499,7 +4495,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4518,7 +4514,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4537,7 +4533,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4556,7 +4552,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -4575,7 +4571,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="12"/>
     </row>
-    <row r="17" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4594,7 +4590,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -4613,7 +4609,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -4632,7 +4628,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -4651,7 +4647,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -4670,7 +4666,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="12"/>
     </row>
-    <row r="22" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -4689,7 +4685,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="12"/>
     </row>
-    <row r="23" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -4708,7 +4704,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="12"/>
     </row>
-    <row r="24" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -4727,7 +4723,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="12"/>
     </row>
-    <row r="25" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -4746,7 +4742,7 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -4771,7 +4767,7 @@
       </c>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -4784,15 +4780,15 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="22"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="27"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -4815,7 +4811,7 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="12"/>
     </row>
-    <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -4838,7 +4834,7 @@
       <c r="P29" s="18"/>
       <c r="Q29" s="12"/>
     </row>
-    <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4854,14 +4850,14 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="30"/>
       <c r="Q30" s="14"/>
     </row>
-    <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -4884,7 +4880,7 @@
       <c r="P31" s="18"/>
       <c r="Q31" s="12"/>
     </row>
-    <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -4907,7 +4903,7 @@
       <c r="P32" s="18"/>
       <c r="Q32" s="12"/>
     </row>
-    <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -4932,18 +4928,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -4960,6 +4944,18 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -4982,86 +4978,86 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="14" max="16" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.59765625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -5069,7 +5065,7 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -5077,7 +5073,7 @@
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="16" t="s">
@@ -5085,7 +5081,7 @@
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="18"/>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="16" t="s">
@@ -5095,26 +5091,26 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
       <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
+      <c r="M5" s="24"/>
       <c r="N5" s="16" t="s">
         <v>10</v>
       </c>
@@ -5122,8 +5118,8 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5133,7 +5129,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5143,7 +5139,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5153,7 +5149,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="19"/>
+      <c r="M6" s="24"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5165,7 +5161,7 @@
       </c>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5184,7 +5180,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -5203,7 +5199,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -5222,7 +5218,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -5241,7 +5237,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -5260,7 +5256,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -5279,7 +5275,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -5298,7 +5294,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -5317,7 +5313,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -5336,7 +5332,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -5355,7 +5351,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="12"/>
     </row>
-    <row r="17" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -5374,7 +5370,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -5393,7 +5389,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -5412,7 +5408,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -5431,7 +5427,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -5450,7 +5446,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="12"/>
     </row>
-    <row r="22" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -5469,7 +5465,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="12"/>
     </row>
-    <row r="23" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -5488,7 +5484,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="12"/>
     </row>
-    <row r="24" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -5507,7 +5503,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="12"/>
     </row>
-    <row r="25" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -5526,7 +5522,7 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -5551,7 +5547,7 @@
       </c>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -5564,15 +5560,15 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="22"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="27"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -5595,7 +5591,7 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="12"/>
     </row>
-    <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -5618,7 +5614,7 @@
       <c r="P29" s="18"/>
       <c r="Q29" s="12"/>
     </row>
-    <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -5634,14 +5630,14 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="30"/>
       <c r="Q30" s="14"/>
     </row>
-    <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -5664,7 +5660,7 @@
       <c r="P31" s="18"/>
       <c r="Q31" s="12"/>
     </row>
-    <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -5687,7 +5683,7 @@
       <c r="P32" s="18"/>
       <c r="Q32" s="12"/>
     </row>
-    <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -5712,18 +5708,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -5740,6 +5724,18 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -5762,86 +5758,86 @@
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="14" max="16" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.59765625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -5849,7 +5845,7 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -5857,7 +5853,7 @@
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="16" t="s">
@@ -5865,7 +5861,7 @@
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="18"/>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="16" t="s">
@@ -5875,26 +5871,26 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
       <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
+      <c r="M5" s="24"/>
       <c r="N5" s="16" t="s">
         <v>24</v>
       </c>
@@ -5902,8 +5898,8 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5913,7 +5909,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5923,7 +5919,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5933,7 +5929,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="19"/>
+      <c r="M6" s="24"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5945,7 +5941,7 @@
       </c>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5964,7 +5960,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -5983,7 +5979,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -6002,7 +5998,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -6021,7 +6017,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -6040,7 +6036,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -6059,7 +6055,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -6078,7 +6074,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -6097,7 +6093,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -6116,7 +6112,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -6135,7 +6131,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="12"/>
     </row>
-    <row r="17" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -6154,7 +6150,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -6173,7 +6169,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -6192,7 +6188,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -6211,7 +6207,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -6230,7 +6226,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="12"/>
     </row>
-    <row r="22" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -6249,7 +6245,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="12"/>
     </row>
-    <row r="23" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -6268,7 +6264,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="12"/>
     </row>
-    <row r="24" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -6287,7 +6283,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="12"/>
     </row>
-    <row r="25" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -6306,7 +6302,7 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -6331,7 +6327,7 @@
       </c>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -6344,15 +6340,15 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="22"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="27"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -6375,7 +6371,7 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="12"/>
     </row>
-    <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -6398,7 +6394,7 @@
       <c r="P29" s="18"/>
       <c r="Q29" s="12"/>
     </row>
-    <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -6414,14 +6410,14 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="30"/>
       <c r="Q30" s="14"/>
     </row>
-    <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -6444,7 +6440,7 @@
       <c r="P31" s="18"/>
       <c r="Q31" s="12"/>
     </row>
-    <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -6467,7 +6463,7 @@
       <c r="P32" s="18"/>
       <c r="Q32" s="12"/>
     </row>
-    <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -6492,18 +6488,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -6520,6 +6504,18 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -6542,86 +6538,86 @@
       <selection activeCell="N5" sqref="N5:P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="14" max="16" width="6.59765625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.59765625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -6629,7 +6625,7 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -6637,7 +6633,7 @@
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="16" t="s">
@@ -6645,7 +6641,7 @@
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="18"/>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="16" t="s">
@@ -6655,26 +6651,26 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
       <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
+      <c r="M5" s="24"/>
       <c r="N5" s="16" t="s">
         <v>10</v>
       </c>
@@ -6682,8 +6678,8 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6693,7 +6689,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6703,7 +6699,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6713,7 +6709,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="19"/>
+      <c r="M6" s="24"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6725,7 +6721,7 @@
       </c>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -6744,7 +6740,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -6763,7 +6759,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -6782,7 +6778,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -6801,7 +6797,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -6820,7 +6816,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -6839,7 +6835,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -6858,7 +6854,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -6877,7 +6873,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -6896,7 +6892,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -6915,7 +6911,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="12"/>
     </row>
-    <row r="17" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -6934,7 +6930,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -6953,7 +6949,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -6972,7 +6968,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -6991,7 +6987,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -7010,7 +7006,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="12"/>
     </row>
-    <row r="22" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -7029,7 +7025,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="12"/>
     </row>
-    <row r="23" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -7048,7 +7044,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="12"/>
     </row>
-    <row r="24" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -7067,7 +7063,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="12"/>
     </row>
-    <row r="25" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -7086,7 +7082,7 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -7111,7 +7107,7 @@
       </c>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -7124,15 +7120,15 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="22"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="27"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -7155,7 +7151,7 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="12"/>
     </row>
-    <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -7178,7 +7174,7 @@
       <c r="P29" s="18"/>
       <c r="Q29" s="12"/>
     </row>
-    <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -7194,14 +7190,14 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="30"/>
       <c r="Q30" s="14"/>
     </row>
-    <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -7224,7 +7220,7 @@
       <c r="P31" s="18"/>
       <c r="Q31" s="12"/>
     </row>
-    <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -7247,7 +7243,7 @@
       <c r="P32" s="18"/>
       <c r="Q32" s="12"/>
     </row>
-    <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -7272,18 +7268,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -7300,6 +7284,18 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -7318,102 +7314,102 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G26" activeCellId="1" sqref="I14 G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="9" width="8.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="11" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="13.1328125" customWidth="1"/>
+    <col min="2" max="3" width="8.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" customWidth="1"/>
+    <col min="5" max="6" width="8.59765625" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" customWidth="1"/>
+    <col min="8" max="9" width="8.59765625" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
+    <col min="11" max="12" width="8.59765625" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="17"/>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="17"/>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="16" t="s">
@@ -7422,52 +7418,52 @@
       <c r="L4" s="17"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
       <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="19"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="17"/>
-      <c r="G5" s="19"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="17"/>
-      <c r="J5" s="19"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7476,7 +7472,7 @@
       </c>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -7491,7 +7487,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -7506,7 +7502,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -7521,7 +7517,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -7536,7 +7532,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -7551,7 +7547,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -7566,7 +7562,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -7581,7 +7577,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -7596,7 +7592,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -7611,7 +7607,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -7626,7 +7622,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -7641,7 +7637,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -7656,7 +7652,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -7671,7 +7667,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -7686,7 +7682,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -7701,7 +7697,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -7716,7 +7712,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -7731,7 +7727,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -7746,7 +7742,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -7761,7 +7757,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -7780,7 +7776,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -7790,14 +7786,14 @@
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -7816,7 +7812,7 @@
       <c r="L28" s="17"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -7835,7 +7831,7 @@
       <c r="L29" s="17"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -7848,13 +7844,13 @@
       <c r="J30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="24"/>
+      <c r="L30" s="29"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -7873,7 +7869,7 @@
       <c r="L31" s="17"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -7892,7 +7888,7 @@
       <c r="L32" s="17"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -7913,18 +7909,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:L3"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="A4:A6"/>
@@ -7941,6 +7925,18 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -7958,102 +7954,102 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="9" width="8.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="11" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="13.1328125" customWidth="1"/>
+    <col min="2" max="3" width="8.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" customWidth="1"/>
+    <col min="5" max="6" width="8.59765625" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" customWidth="1"/>
+    <col min="8" max="9" width="8.59765625" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
+    <col min="11" max="12" width="8.59765625" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="17"/>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="17"/>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="16" t="s">
@@ -8062,52 +8058,52 @@
       <c r="L4" s="17"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
       <c r="B5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="19"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="17"/>
-      <c r="G5" s="19"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="17"/>
-      <c r="J5" s="19"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="31" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
@@ -8116,7 +8112,7 @@
       </c>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -8131,7 +8127,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -8146,7 +8142,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -8161,7 +8157,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -8176,7 +8172,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -8191,7 +8187,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -8206,7 +8202,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -8221,7 +8217,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -8236,7 +8232,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -8251,7 +8247,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -8266,7 +8262,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -8281,7 +8277,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -8296,7 +8292,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -8311,7 +8307,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -8326,7 +8322,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -8341,7 +8337,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -8356,7 +8352,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -8371,7 +8367,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -8386,7 +8382,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -8401,7 +8397,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -8420,7 +8416,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -8430,14 +8426,14 @@
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -8456,7 +8452,7 @@
       <c r="L28" s="17"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -8475,7 +8471,7 @@
       <c r="L29" s="17"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -8488,13 +8484,13 @@
       <c r="J30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="24"/>
+      <c r="L30" s="29"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -8513,7 +8509,7 @@
       <c r="L31" s="17"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -8532,7 +8528,7 @@
       <c r="L32" s="17"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -8553,6 +8549,25 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:L1"/>
@@ -8562,25 +8577,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -8602,98 +8598,98 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="9" width="8.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="11" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="13.1328125" customWidth="1"/>
+    <col min="2" max="3" width="8.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" customWidth="1"/>
+    <col min="5" max="6" width="8.59765625" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" customWidth="1"/>
+    <col min="8" max="9" width="8.59765625" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
+    <col min="11" max="12" width="8.59765625" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="17"/>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="17"/>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="16" t="s">
@@ -8702,52 +8698,52 @@
       <c r="L4" s="17"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
       <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="19"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="17"/>
-      <c r="G5" s="19"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="17"/>
-      <c r="J5" s="19"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
@@ -8756,7 +8752,7 @@
       </c>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -8771,7 +8767,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -8786,7 +8782,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -8801,7 +8797,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -8816,7 +8812,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -8831,7 +8827,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -8846,7 +8842,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -8861,7 +8857,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -8876,7 +8872,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -8891,7 +8887,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -8906,7 +8902,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -8921,7 +8917,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -8936,7 +8932,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -8951,7 +8947,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -8966,7 +8962,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -8981,7 +8977,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -8996,7 +8992,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -9011,7 +9007,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -9026,7 +9022,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -9041,7 +9037,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -9060,7 +9056,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -9070,14 +9066,14 @@
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -9096,7 +9092,7 @@
       <c r="L28" s="17"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -9115,7 +9111,7 @@
       <c r="L29" s="17"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -9128,13 +9124,13 @@
       <c r="J30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="24"/>
+      <c r="L30" s="29"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -9153,7 +9149,7 @@
       <c r="L31" s="17"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -9172,7 +9168,7 @@
       <c r="L32" s="17"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -9193,6 +9189,25 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:L1"/>
@@ -9202,25 +9217,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
